--- a/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H2">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N2">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O2">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P2">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q2">
-        <v>965.228083991395</v>
+        <v>1380.24540622409</v>
       </c>
       <c r="R2">
-        <v>965.228083991395</v>
+        <v>12422.20865601681</v>
       </c>
       <c r="S2">
-        <v>0.038343826499956</v>
+        <v>0.05006936746148508</v>
       </c>
       <c r="T2">
-        <v>0.038343826499956</v>
+        <v>0.05006936746148508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H3">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N3">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O3">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P3">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q3">
-        <v>1427.216999586353</v>
+        <v>1667.374255609155</v>
       </c>
       <c r="R3">
-        <v>1427.216999586353</v>
+        <v>15006.36830048239</v>
       </c>
       <c r="S3">
-        <v>0.05669640359367616</v>
+        <v>0.06048516729231614</v>
       </c>
       <c r="T3">
-        <v>0.05669640359367616</v>
+        <v>0.06048516729231614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H4">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N4">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O4">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P4">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q4">
-        <v>899.2807104701045</v>
+        <v>1053.463992133716</v>
       </c>
       <c r="R4">
-        <v>899.2807104701045</v>
+        <v>9481.175929203438</v>
       </c>
       <c r="S4">
-        <v>0.03572405746259891</v>
+        <v>0.03821514311276208</v>
       </c>
       <c r="T4">
-        <v>0.03572405746259891</v>
+        <v>0.03821514311276208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H5">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N5">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O5">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P5">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q5">
-        <v>6169.59321807268</v>
+        <v>7592.676924992452</v>
       </c>
       <c r="R5">
-        <v>6169.59321807268</v>
+        <v>68334.09232493206</v>
       </c>
       <c r="S5">
-        <v>0.2450879909656596</v>
+        <v>0.2754296658112294</v>
       </c>
       <c r="T5">
-        <v>0.2450879909656596</v>
+        <v>0.2754296658112295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H6">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N6">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O6">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P6">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q6">
-        <v>9122.557111013875</v>
+        <v>9172.161688640106</v>
       </c>
       <c r="R6">
-        <v>9122.557111013875</v>
+        <v>82549.45519776095</v>
       </c>
       <c r="S6">
-        <v>0.362394912562215</v>
+        <v>0.3327265803122813</v>
       </c>
       <c r="T6">
-        <v>0.362394912562215</v>
+        <v>0.3327265803122814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H7">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N7">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O7">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P7">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q7">
-        <v>5748.067492521694</v>
+        <v>5795.064927088391</v>
       </c>
       <c r="R7">
-        <v>5748.067492521694</v>
+        <v>52155.58434379552</v>
       </c>
       <c r="S7">
-        <v>0.2283428200015509</v>
+        <v>0.2102200333282216</v>
       </c>
       <c r="T7">
-        <v>0.2283428200015509</v>
+        <v>0.2102200333282216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H8">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N8">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O8">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P8">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q8">
-        <v>246.613660263304</v>
+        <v>304.8110484448702</v>
       </c>
       <c r="R8">
-        <v>246.613660263304</v>
+        <v>2743.299436003832</v>
       </c>
       <c r="S8">
-        <v>0.009796763644249208</v>
+        <v>0.01105723396874608</v>
       </c>
       <c r="T8">
-        <v>0.009796763644249208</v>
+        <v>0.01105723396874608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H9">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N9">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O9">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P9">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q9">
-        <v>364.6508157973765</v>
+        <v>368.2200952891251</v>
       </c>
       <c r="R9">
-        <v>364.6508157973765</v>
+        <v>3313.980857602126</v>
       </c>
       <c r="S9">
-        <v>0.01448580687393951</v>
+        <v>0.01335744149163355</v>
       </c>
       <c r="T9">
-        <v>0.01448580687393951</v>
+        <v>0.01335744149163355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H10">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N10">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O10">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P10">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q10">
-        <v>229.764250845393</v>
+        <v>232.6451966390844</v>
       </c>
       <c r="R10">
-        <v>229.764250845393</v>
+        <v>2093.80676975176</v>
       </c>
       <c r="S10">
-        <v>0.0091274183961546</v>
+        <v>0.00843936722132484</v>
       </c>
       <c r="T10">
-        <v>0.0091274183961546</v>
+        <v>0.00843936722132484</v>
       </c>
     </row>
   </sheetData>
